--- a/Lloyds_GUI/agentData.xlsx
+++ b/Lloyds_GUI/agentData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\OneDrive - Queen's University\2nd Year\APSC 200-293\P2\strikeforce\Lloyds_GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="5EABCB54F9FED41B9CD5DA9536CBA9DDD41E3AC5" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{625715E5-810A-435C-A19B-C0A7C9ECCB0B}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="5EABCB54F9FED41B9CD5DA9536CBA9DDD41E3AC5" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{E0B9EEB3-6A17-4B83-926B-987C3EF69D9A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11160" activeTab="4" xr2:uid="{1DF595B1-CB8E-468E-A964-E28AC2A8AB34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11160" activeTab="5" xr2:uid="{1DF595B1-CB8E-468E-A964-E28AC2A8AB34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3355,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD810C7-D7B5-4B8F-9C7A-9A8B67683E0B}">
   <dimension ref="A1:Y1250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Y750"/>
     </sheetView>
   </sheetViews>
@@ -99620,7 +99620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E9DEF-6389-4926-B9A8-F4FC8C2B8B1E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
